--- a/power_comp_1_row_20_5_col_2.xlsx
+++ b/power_comp_1_row_20_5_col_2.xlsx
@@ -71,37 +71,37 @@
     <t xml:space="preserve">&lt; -0.0322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0076 -0.0803</t>
+    <t xml:space="preserve">0.0077 -0.0802</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5334 5e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0288 -0.0476</t>
+    <t xml:space="preserve">0.535 5e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0291 -0.0475</t>
   </si>
   <si>
     <t xml:space="preserve">=</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9802 0.0486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2237 5e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3686 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; -0.0486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0186 -0.0481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6583 -5e-04</t>
+    <t xml:space="preserve">0.9802 0.0485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2259 5e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3685 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; -0.0485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0188 -0.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.655 -5e-04</t>
   </si>
 </sst>
 </file>
